--- a/www/terminologies/ValueSet-jdv-prothese-objet-personnel-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-prothese-objet-personnel-cisis.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103857</t>
+    <t>20250624152100</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:57+01:00</t>
+    <t>2025-06-24T15:21:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-prothese-objet-personnel-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-prothese-objet-personnel-cisis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152100</t>
+    <t>20251216141838</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:21:00+01:00</t>
+    <t>2025-12-16T14:18:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>Autre dispositif ou objet personnel</t>
+  </si>
+  <si>
+    <t>GEN-413</t>
+  </si>
+  <si>
+    <t>Aucun objet</t>
   </si>
   <si>
     <t/>
@@ -400,7 +406,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,15 +437,23 @@
         <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -469,42 +483,42 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
